--- a/outputs-r202/g__UBA1711.xlsx
+++ b/outputs-r202/g__UBA1711.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR25"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -793,6 +798,11 @@
           <t>s__UBA1711 sp900314925</t>
         </is>
       </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900314925</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -931,6 +941,11 @@
           <t>s__UBA1711 sp900315935</t>
         </is>
       </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900315935</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1069,6 +1084,11 @@
           <t>s__UBA1711 sp900316055</t>
         </is>
       </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900316055</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1207,6 +1227,11 @@
           <t>s__UBA1711 sp900316235</t>
         </is>
       </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900316235</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1345,6 +1370,11 @@
           <t>s__UBA1711 sp900317285</t>
         </is>
       </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900317285</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1483,6 +1513,11 @@
           <t>s__UBA1711 sp900317125</t>
         </is>
       </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900317125</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1621,6 +1656,11 @@
           <t>s__UBA1711 sp900316515</t>
         </is>
       </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900316515</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1759,6 +1799,11 @@
           <t>s__UBA1711 sp900317125</t>
         </is>
       </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900317125</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1897,6 +1942,11 @@
           <t>s__UBA1711 sp900317285</t>
         </is>
       </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900317285</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2035,6 +2085,11 @@
           <t>s__UBA1711 sp900319865</t>
         </is>
       </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900319865</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2173,6 +2228,11 @@
           <t>s__UBA1711 sp900317125</t>
         </is>
       </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900317125</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2311,6 +2371,11 @@
           <t>s__UBA1711 sp900317125</t>
         </is>
       </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900317125</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2449,6 +2514,11 @@
           <t>s__UBA1711 sp900317125</t>
         </is>
       </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900317125</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2587,6 +2657,11 @@
           <t>s__UBA1711 sp900317955</t>
         </is>
       </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900317955</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2725,6 +2800,11 @@
           <t>s__UBA1711 sp900319865</t>
         </is>
       </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900319865</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2863,6 +2943,11 @@
           <t>s__UBA1711 sp900318175</t>
         </is>
       </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900318175</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3001,6 +3086,11 @@
           <t>s__UBA1711 sp900318275</t>
         </is>
       </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900318275</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3139,6 +3229,11 @@
           <t>s__UBA1711 sp900318835</t>
         </is>
       </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900318835</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3277,6 +3372,11 @@
           <t>s__UBA1711 sp900317285</t>
         </is>
       </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900317285</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3415,6 +3515,11 @@
           <t>s__UBA1711 sp900319865</t>
         </is>
       </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900319865</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -3553,6 +3658,11 @@
           <t>s__UBA1711 sp900320975</t>
         </is>
       </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900320975</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -3691,6 +3801,11 @@
           <t>s__UBA1711 sp900316235</t>
         </is>
       </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900316235</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -3829,6 +3944,11 @@
           <t>s__UBA1711 sp900321975</t>
         </is>
       </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900321975</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -3963,6 +4083,11 @@
         <v>0.9998885205244455</v>
       </c>
       <c r="AR25" t="inlineStr">
+        <is>
+          <t>s__UBA1711 sp900319865</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
         <is>
           <t>s__UBA1711 sp900319865</t>
         </is>
